--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H2">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>463.7010090829945</v>
+        <v>3113.66527501094</v>
       </c>
       <c r="R2">
-        <v>463.7010090829945</v>
+        <v>28022.98747509846</v>
       </c>
       <c r="S2">
-        <v>0.005011198432355072</v>
+        <v>0.01191264210127866</v>
       </c>
       <c r="T2">
-        <v>0.005011198432355072</v>
+        <v>0.01191264210127866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H3">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>133.2532507570161</v>
+        <v>254.4762391891798</v>
       </c>
       <c r="R3">
-        <v>133.2532507570161</v>
+        <v>2290.286152702618</v>
       </c>
       <c r="S3">
-        <v>0.00144006260115828</v>
+        <v>0.0009736063747987267</v>
       </c>
       <c r="T3">
-        <v>0.00144006260115828</v>
+        <v>0.0009736063747987267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H4">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I4">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J4">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>77.29744601251964</v>
+        <v>149.267272664188</v>
       </c>
       <c r="R4">
-        <v>77.29744601251964</v>
+        <v>1343.405453977692</v>
       </c>
       <c r="S4">
-        <v>0.0008353504363706478</v>
+        <v>0.0005710850202664125</v>
       </c>
       <c r="T4">
-        <v>0.0008353504363706478</v>
+        <v>0.0005710850202664125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H5">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>60615.92230590292</v>
+        <v>219045.1651818317</v>
       </c>
       <c r="R5">
-        <v>60615.92230590292</v>
+        <v>1971406.486636485</v>
       </c>
       <c r="S5">
-        <v>0.655073870630137</v>
+        <v>0.8380498307794045</v>
       </c>
       <c r="T5">
-        <v>0.655073870630137</v>
+        <v>0.8380498307794046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H6">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J6">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>17419.13115709998</v>
+        <v>17902.30642176184</v>
       </c>
       <c r="R6">
-        <v>17419.13115709998</v>
+        <v>161120.7577958565</v>
       </c>
       <c r="S6">
-        <v>0.1882478602323318</v>
+        <v>0.06849283733272263</v>
       </c>
       <c r="T6">
-        <v>0.1882478602323318</v>
+        <v>0.06849283733272264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H7">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J7">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>10104.4765703777</v>
+        <v>10500.89573191315</v>
       </c>
       <c r="R7">
-        <v>10104.4765703777</v>
+        <v>94508.06158721836</v>
       </c>
       <c r="S7">
-        <v>0.1091986779355539</v>
+        <v>0.04017561348070289</v>
       </c>
       <c r="T7">
-        <v>0.1091986779355539</v>
+        <v>0.04017561348070289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J8">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>2557.776730220072</v>
+        <v>9214.292298633911</v>
       </c>
       <c r="R8">
-        <v>2557.776730220072</v>
+        <v>82928.6306877052</v>
       </c>
       <c r="S8">
-        <v>0.02764179177901895</v>
+        <v>0.03525316842858402</v>
       </c>
       <c r="T8">
-        <v>0.02764179177901895</v>
+        <v>0.03525316842858402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J9">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>735.0254956022168</v>
+        <v>753.0733858147105</v>
       </c>
       <c r="R9">
-        <v>735.0254956022168</v>
+        <v>6777.660472332394</v>
       </c>
       <c r="S9">
-        <v>0.007943391407724066</v>
+        <v>0.002881200427421431</v>
       </c>
       <c r="T9">
-        <v>0.007943391407724066</v>
+        <v>0.002881200427421431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J10">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>426.3730396171694</v>
+        <v>441.727725836838</v>
       </c>
       <c r="R10">
-        <v>426.3730396171694</v>
+        <v>3975.549532531542</v>
       </c>
       <c r="S10">
-        <v>0.004607796545350204</v>
+        <v>0.001690016054820634</v>
       </c>
       <c r="T10">
-        <v>0.004607796545350204</v>
+        <v>0.001690016054820635</v>
       </c>
     </row>
   </sheetData>
